--- a/biology/Biologie cellulaire et moléculaire/Théorie_cellulaire/Théorie_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Théorie_cellulaire/Théorie_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_cellulaire</t>
+          <t>Théorie_cellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie cellulaire est la théorie centrale et principale de la biologie cellulaire et le fondement le plus reconnu de la biologie en général. Elle a été alimentée par beaucoup d'expériences réalisées depuis le XVIIe siècle.
 La théorie cellulaire est constituée de trois principes, qui peuvent être résumés comme suit : la cellule est l'unité structurale, l'unité fonctionnelle et l'unité reproductrice du Vivant
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_cellulaire</t>
+          <t>Théorie_cellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dates historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1665 : On attribue à Robert Hooke la première description d'une cellule biologique faite à partir de l'observation de végétaux. Hooke décrit en 1665 un œil de mouche et une cellule de liège (dans « Observation XVIII » de Micrographia), qui sont des cellules mortes, vidées de leur contenu. Il est le premier à utiliser le mot « cellule » en 1667[1] dans son ouvrage Micrographia.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1665 : On attribue à Robert Hooke la première description d'une cellule biologique faite à partir de l'observation de végétaux. Hooke décrit en 1665 un œil de mouche et une cellule de liège (dans « Observation XVIII » de Micrographia), qui sont des cellules mortes, vidées de leur contenu. Il est le premier à utiliser le mot « cellule » en 1667 dans son ouvrage Micrographia.
 1675 : Antoni van Leeuwenhoek (1632-1723), grâce à ses améliorations du microscope, observe et fait une description détaillée de cellules vivantes.
 1838 : avec le botaniste Matthias Jakob Schleiden et le zoologiste Theodor Schwann, la notion de cellule prend toute son ampleur : « la cellule est l’unité structurale et fonctionnelle des plantes et des animaux »[réf. nécessaire]. Leurs observations du matériel vivant les conduisent à énoncer que « tous les organismes sont faits de petites unités : les cellules ». C'est le premier axiome de la théorie cellulaire[réf. souhaitée].
 En 1855, le médecin allemand Rudolf Virchow suggère que toute cellule provient d'une autre cellule. C'est le deuxième axiome de la théorie cellulaire[réf. souhaitée].
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_cellulaire</t>
+          <t>Théorie_cellulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Théorie cellulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les êtres vivants sont constitués d'une ou plusieurs cellules (ce qui définit les êtres vivants et exclut les virus de cette catégorie).
 Toute cellule provient d'une autre cellule par division cellulaire.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_cellulaire</t>
+          <t>Théorie_cellulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Fonctions communes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Toute cellule possède de l'information génétique sous forme d'ADN qui par divers processus s'exprime sous d'autres formes (ARN, protéines, ribosomes…) qui influencent son fonctionnement. Cela cause entre autres le phénomène de différenciation cellulaire.
 Toutes les cellules peuvent se diviser (voir mitose).
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_cellulaire</t>
+          <t>Théorie_cellulaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Fonctions spécifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules répondent à des stimuli par la mise en œuvre de fonctions spécifiques : stockage de macromolécules (amidon…), contraction musculaire, conduction nerveuse, sécrétion endocrine et exocrine, photosynthèse, fonctions immunitaires…
 </t>
